--- a/fluxo_caixa_cbs.xlsx
+++ b/fluxo_caixa_cbs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago\Desktop\Formação em Dados\Projeto prático\Base de Dados-20240603T234701Z-001\Base de Dados\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thiago\Desktop\Formação em Dados\Projeto prático\Base de Dados-20240603T234701Z-001\Base de Dados\base\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAA23DD0-5668-4CE5-BC4E-114566FC0DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CCEB424-04A8-4E49-A65C-9280268EA9B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Receita" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3618" uniqueCount="237">
   <si>
     <t>Data</t>
   </si>
@@ -750,13 +750,16 @@
   <si>
     <t>24025</t>
   </si>
+  <si>
+    <t>Matricula</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -830,10 +833,10 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1118,14 +1121,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1312"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.77734375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.5546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="12.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="4" bestFit="1" customWidth="1"/>
   </cols>
@@ -1135,7 +1138,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>1</v>
+        <v>236</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -19501,7 +19504,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="B2:B1312" numberStoredAsText="1"/>
+    <ignoredError sqref="B4:B10 B12:B1312" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -19510,7 +19513,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{240F1036-6565-42D6-BBB5-33C716129936}">
   <dimension ref="A1:D495"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
